--- a/XLSX_comprobantes_done/mendizabal_vta_20240306.xlsx
+++ b/XLSX_comprobantes_done/mendizabal_vta_20240306.xlsx
@@ -512,10 +512,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A2" t="n">
+        <v>40379573</v>
       </c>
       <c r="B2" t="n">
         <v>22</v>
@@ -573,10 +571,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A3" t="n">
+        <v>40379573</v>
       </c>
       <c r="B3" t="n">
         <v>22</v>
@@ -634,10 +630,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A4" t="n">
+        <v>40379573</v>
       </c>
       <c r="B4" t="n">
         <v>22</v>
@@ -689,10 +683,8 @@
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A5" t="n">
+        <v>40379573</v>
       </c>
       <c r="B5" t="n">
         <v>22</v>
@@ -744,10 +736,8 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A6" t="n">
+        <v>40379573</v>
       </c>
       <c r="B6" t="n">
         <v>22</v>
@@ -799,10 +789,8 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A7" t="n">
+        <v>40379573</v>
       </c>
       <c r="B7" t="n">
         <v>22</v>
@@ -854,10 +842,8 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A8" t="n">
+        <v>40379573</v>
       </c>
       <c r="B8" t="n">
         <v>22</v>
@@ -909,10 +895,8 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A9" t="n">
+        <v>40379573</v>
       </c>
       <c r="B9" t="n">
         <v>22</v>
@@ -964,10 +948,8 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A10" t="n">
+        <v>40379573</v>
       </c>
       <c r="B10" t="n">
         <v>22</v>
@@ -1019,10 +1001,8 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A11" t="n">
+        <v>40379573</v>
       </c>
       <c r="B11" t="n">
         <v>22</v>
@@ -1074,10 +1054,8 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A12" t="n">
+        <v>40379573</v>
       </c>
       <c r="B12" t="n">
         <v>22</v>
@@ -1129,10 +1107,8 @@
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A13" t="n">
+        <v>40379573</v>
       </c>
       <c r="B13" t="n">
         <v>22</v>
@@ -1184,10 +1160,8 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A14" t="n">
+        <v>40379573</v>
       </c>
       <c r="B14" t="n">
         <v>22</v>
@@ -1239,10 +1213,8 @@
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A15" t="n">
+        <v>40379573</v>
       </c>
       <c r="B15" t="n">
         <v>22</v>
@@ -1294,10 +1266,8 @@
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A16" t="n">
+        <v>40379573</v>
       </c>
       <c r="B16" t="n">
         <v>22</v>
@@ -1349,10 +1319,8 @@
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A17" t="n">
+        <v>40379573</v>
       </c>
       <c r="B17" t="n">
         <v>22</v>
@@ -1404,10 +1372,8 @@
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A18" t="n">
+        <v>40379573</v>
       </c>
       <c r="B18" t="n">
         <v>22</v>
@@ -1459,10 +1425,8 @@
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A19" t="n">
+        <v>40379573</v>
       </c>
       <c r="B19" t="n">
         <v>22</v>
@@ -1514,10 +1478,8 @@
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A20" t="n">
+        <v>40379573</v>
       </c>
       <c r="B20" t="n">
         <v>22</v>
@@ -1569,10 +1531,8 @@
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A21" t="n">
+        <v>40379573</v>
       </c>
       <c r="B21" t="n">
         <v>22</v>
@@ -1624,10 +1584,8 @@
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A22" t="n">
+        <v>40379573</v>
       </c>
       <c r="B22" t="n">
         <v>22</v>
@@ -1679,10 +1637,8 @@
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A23" t="n">
+        <v>40379573</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
@@ -1734,10 +1690,8 @@
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A24" t="n">
+        <v>40379573</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
@@ -1789,10 +1743,8 @@
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A25" t="n">
+        <v>40379573</v>
       </c>
       <c r="B25" t="n">
         <v>22</v>
@@ -1844,10 +1796,8 @@
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A26" t="n">
+        <v>40379573</v>
       </c>
       <c r="B26" t="n">
         <v>22</v>
@@ -1899,10 +1849,8 @@
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A27" t="n">
+        <v>40379573</v>
       </c>
       <c r="B27" t="n">
         <v>22</v>
@@ -1954,10 +1902,8 @@
       <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A28" t="n">
+        <v>40379573</v>
       </c>
       <c r="B28" t="n">
         <v>22</v>
@@ -2009,10 +1955,8 @@
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A29" t="n">
+        <v>40379573</v>
       </c>
       <c r="B29" t="n">
         <v>22</v>
@@ -2064,10 +2008,8 @@
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A30" t="n">
+        <v>40379573</v>
       </c>
       <c r="B30" t="n">
         <v>22</v>
@@ -2119,10 +2061,8 @@
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A31" t="n">
+        <v>40379573</v>
       </c>
       <c r="B31" t="n">
         <v>22</v>
@@ -2174,10 +2114,8 @@
       <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A32" t="n">
+        <v>40379573</v>
       </c>
       <c r="B32" t="n">
         <v>22</v>
@@ -2229,10 +2167,8 @@
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A33" t="n">
+        <v>40379573</v>
       </c>
       <c r="B33" t="n">
         <v>22</v>
@@ -2284,10 +2220,8 @@
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A34" t="n">
+        <v>40379573</v>
       </c>
       <c r="B34" t="n">
         <v>22</v>
@@ -2339,10 +2273,8 @@
       <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A35" t="n">
+        <v>40379573</v>
       </c>
       <c r="B35" t="n">
         <v>22</v>
@@ -2394,10 +2326,8 @@
       <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A36" t="n">
+        <v>40379573</v>
       </c>
       <c r="B36" t="n">
         <v>22</v>
@@ -2449,10 +2379,8 @@
       <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A37" t="n">
+        <v>40379573</v>
       </c>
       <c r="B37" t="n">
         <v>22</v>
@@ -2504,10 +2432,8 @@
       <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A38" t="n">
+        <v>40379573</v>
       </c>
       <c r="B38" t="n">
         <v>22</v>
@@ -2559,10 +2485,8 @@
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A39" t="n">
+        <v>40379573</v>
       </c>
       <c r="B39" t="n">
         <v>22</v>
@@ -2614,10 +2538,8 @@
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A40" t="n">
+        <v>40379573</v>
       </c>
       <c r="B40" t="n">
         <v>22</v>
@@ -2669,10 +2591,8 @@
       <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A41" t="n">
+        <v>40379573</v>
       </c>
       <c r="B41" t="n">
         <v>22</v>
@@ -2724,10 +2644,8 @@
       <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A42" t="n">
+        <v>40379573</v>
       </c>
       <c r="B42" t="n">
         <v>22</v>
@@ -2779,10 +2697,8 @@
       <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A43" t="n">
+        <v>40379573</v>
       </c>
       <c r="B43" t="n">
         <v>22</v>
@@ -2834,10 +2750,8 @@
       <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A44" t="n">
+        <v>40379573</v>
       </c>
       <c r="B44" t="n">
         <v>22</v>
@@ -2889,10 +2803,8 @@
       <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A45" t="n">
+        <v>40379573</v>
       </c>
       <c r="B45" t="n">
         <v>22</v>
@@ -2944,10 +2856,8 @@
       <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A46" t="n">
+        <v>40379573</v>
       </c>
       <c r="B46" t="n">
         <v>22</v>
@@ -2999,10 +2909,8 @@
       <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A47" t="n">
+        <v>40379573</v>
       </c>
       <c r="B47" t="n">
         <v>22</v>
@@ -3054,10 +2962,8 @@
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A48" t="n">
+        <v>40379573</v>
       </c>
       <c r="B48" t="n">
         <v>22</v>
@@ -3109,10 +3015,8 @@
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A49" t="n">
+        <v>40379573</v>
       </c>
       <c r="B49" t="n">
         <v>22</v>
@@ -3164,10 +3068,8 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A50" t="n">
+        <v>40379573</v>
       </c>
       <c r="B50" t="n">
         <v>22</v>
@@ -3219,10 +3121,8 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A51" t="n">
+        <v>40379573</v>
       </c>
       <c r="B51" t="n">
         <v>22</v>
@@ -3274,10 +3174,8 @@
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A52" t="n">
+        <v>40379573</v>
       </c>
       <c r="B52" t="n">
         <v>22</v>
@@ -3329,10 +3227,8 @@
       <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A53" t="n">
+        <v>40379573</v>
       </c>
       <c r="B53" t="n">
         <v>22</v>
@@ -3384,10 +3280,8 @@
       <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A54" t="n">
+        <v>40379573</v>
       </c>
       <c r="B54" t="n">
         <v>22</v>
@@ -3439,10 +3333,8 @@
       <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A55" t="n">
+        <v>40379573</v>
       </c>
       <c r="B55" t="n">
         <v>22</v>
@@ -3494,10 +3386,8 @@
       <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A56" t="n">
+        <v>40379573</v>
       </c>
       <c r="B56" t="n">
         <v>22</v>
@@ -3549,10 +3439,8 @@
       <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A57" t="n">
+        <v>40379573</v>
       </c>
       <c r="B57" t="n">
         <v>22</v>
@@ -3604,10 +3492,8 @@
       <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A58" t="n">
+        <v>40379573</v>
       </c>
       <c r="B58" t="n">
         <v>22</v>
@@ -3659,10 +3545,8 @@
       <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A59" t="n">
+        <v>40379573</v>
       </c>
       <c r="B59" t="n">
         <v>22</v>
@@ -3714,10 +3598,8 @@
       <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A60" t="n">
+        <v>40379573</v>
       </c>
       <c r="B60" t="n">
         <v>22</v>
@@ -3769,10 +3651,8 @@
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A61" t="n">
+        <v>40379573</v>
       </c>
       <c r="B61" t="n">
         <v>22</v>
@@ -3824,10 +3704,8 @@
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A62" t="n">
+        <v>40379573</v>
       </c>
       <c r="B62" t="n">
         <v>22</v>
@@ -3879,10 +3757,8 @@
       <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A63" t="n">
+        <v>40379573</v>
       </c>
       <c r="B63" t="n">
         <v>22</v>
@@ -3934,10 +3810,8 @@
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A64" t="n">
+        <v>40379573</v>
       </c>
       <c r="B64" t="n">
         <v>22</v>
@@ -3989,10 +3863,8 @@
       <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A65" t="n">
+        <v>40379573</v>
       </c>
       <c r="B65" t="n">
         <v>22</v>
@@ -4044,10 +3916,8 @@
       <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A66" t="n">
+        <v>40379573</v>
       </c>
       <c r="B66" t="n">
         <v>22</v>
@@ -4099,10 +3969,8 @@
       <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A67" t="n">
+        <v>40379573</v>
       </c>
       <c r="B67" t="n">
         <v>22</v>
@@ -4154,10 +4022,8 @@
       <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A68" t="n">
+        <v>40379573</v>
       </c>
       <c r="B68" t="n">
         <v>22</v>
@@ -4209,10 +4075,8 @@
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A69" t="n">
+        <v>40379573</v>
       </c>
       <c r="B69" t="n">
         <v>22</v>
@@ -4264,10 +4128,8 @@
       <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A70" t="n">
+        <v>40379573</v>
       </c>
       <c r="B70" t="n">
         <v>22</v>
@@ -4319,10 +4181,8 @@
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A71" t="n">
+        <v>40379573</v>
       </c>
       <c r="B71" t="n">
         <v>22</v>
@@ -4374,10 +4234,8 @@
       <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A72" t="n">
+        <v>40379573</v>
       </c>
       <c r="B72" t="n">
         <v>22</v>
@@ -4429,10 +4287,8 @@
       <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A73" t="n">
+        <v>40379573</v>
       </c>
       <c r="B73" t="n">
         <v>22</v>
@@ -4484,10 +4340,8 @@
       <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A74" t="n">
+        <v>40379573</v>
       </c>
       <c r="B74" t="n">
         <v>22</v>
@@ -4539,10 +4393,8 @@
       <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A75" t="n">
+        <v>40379573</v>
       </c>
       <c r="B75" t="n">
         <v>22</v>
@@ -4594,10 +4446,8 @@
       <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A76" t="n">
+        <v>40379573</v>
       </c>
       <c r="B76" t="n">
         <v>22</v>
@@ -4649,10 +4499,8 @@
       <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A77" t="n">
+        <v>40379573</v>
       </c>
       <c r="B77" t="n">
         <v>22</v>
@@ -4704,10 +4552,8 @@
       <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A78" t="n">
+        <v>40379573</v>
       </c>
       <c r="B78" t="n">
         <v>22</v>
@@ -4759,10 +4605,8 @@
       <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A79" t="n">
+        <v>40379573</v>
       </c>
       <c r="B79" t="n">
         <v>22</v>
@@ -4814,10 +4658,8 @@
       <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A80" t="n">
+        <v>40379573</v>
       </c>
       <c r="B80" t="n">
         <v>22</v>
@@ -4869,10 +4711,8 @@
       <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A81" t="n">
+        <v>40379573</v>
       </c>
       <c r="B81" t="n">
         <v>22</v>
@@ -4924,10 +4764,8 @@
       <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A82" t="n">
+        <v>40379573</v>
       </c>
       <c r="B82" t="n">
         <v>22</v>
@@ -4979,10 +4817,8 @@
       <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A83" t="n">
+        <v>40379573</v>
       </c>
       <c r="B83" t="n">
         <v>22</v>
@@ -5034,10 +4870,8 @@
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A84" t="n">
+        <v>40379573</v>
       </c>
       <c r="B84" t="n">
         <v>22</v>
@@ -5089,10 +4923,8 @@
       <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A85" t="n">
+        <v>40379573</v>
       </c>
       <c r="B85" t="n">
         <v>22</v>
@@ -5144,10 +4976,8 @@
       <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A86" t="n">
+        <v>40379573</v>
       </c>
       <c r="B86" t="n">
         <v>22</v>
@@ -5190,7 +5020,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6.0000000012</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
         <v>4785</v>
@@ -5199,10 +5029,8 @@
       <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A87" t="n">
+        <v>40379573</v>
       </c>
       <c r="B87" t="n">
         <v>22</v>
@@ -5254,10 +5082,8 @@
       <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A88" t="n">
+        <v>40379573</v>
       </c>
       <c r="B88" t="n">
         <v>22</v>
@@ -5309,10 +5135,8 @@
       <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A89" t="n">
+        <v>40379573</v>
       </c>
       <c r="B89" t="n">
         <v>22</v>
@@ -5364,10 +5188,8 @@
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A90" t="n">
+        <v>40379573</v>
       </c>
       <c r="B90" t="n">
         <v>22</v>
@@ -5419,10 +5241,8 @@
       <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A91" t="n">
+        <v>40379573</v>
       </c>
       <c r="B91" t="n">
         <v>22</v>
@@ -5465,7 +5285,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>6.0000000012</v>
+        <v>6</v>
       </c>
       <c r="M91" t="n">
         <v>4790</v>
@@ -5474,10 +5294,8 @@
       <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A92" t="n">
+        <v>40379573</v>
       </c>
       <c r="B92" t="n">
         <v>22</v>
@@ -5529,10 +5347,8 @@
       <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A93" t="n">
+        <v>40379573</v>
       </c>
       <c r="B93" t="n">
         <v>22</v>
@@ -5584,10 +5400,8 @@
       <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A94" t="n">
+        <v>40379573</v>
       </c>
       <c r="B94" t="n">
         <v>22</v>
@@ -5639,10 +5453,8 @@
       <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A95" t="n">
+        <v>40379573</v>
       </c>
       <c r="B95" t="n">
         <v>22</v>
@@ -5694,10 +5506,8 @@
       <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A96" t="n">
+        <v>40379573</v>
       </c>
       <c r="B96" t="n">
         <v>22</v>
@@ -5749,10 +5559,8 @@
       <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A97" t="n">
+        <v>40379573</v>
       </c>
       <c r="B97" t="n">
         <v>22</v>
@@ -5795,7 +5603,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>6.0000000012</v>
+        <v>6</v>
       </c>
       <c r="M97" t="n">
         <v>4796</v>
@@ -5804,10 +5612,8 @@
       <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A98" t="n">
+        <v>40379573</v>
       </c>
       <c r="B98" t="n">
         <v>22</v>
@@ -5859,10 +5665,8 @@
       <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A99" t="n">
+        <v>40379573</v>
       </c>
       <c r="B99" t="n">
         <v>22</v>
@@ -5914,10 +5718,8 @@
       <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A100" t="n">
+        <v>40379573</v>
       </c>
       <c r="B100" t="n">
         <v>22</v>
@@ -5969,10 +5771,8 @@
       <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A101" t="n">
+        <v>40379573</v>
       </c>
       <c r="B101" t="n">
         <v>22</v>
@@ -6024,10 +5824,8 @@
       <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A102" t="n">
+        <v>40379573</v>
       </c>
       <c r="B102" t="n">
         <v>22</v>
@@ -6079,10 +5877,8 @@
       <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A103" t="n">
+        <v>40379573</v>
       </c>
       <c r="B103" t="n">
         <v>22</v>
@@ -6134,10 +5930,8 @@
       <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A104" t="n">
+        <v>40379573</v>
       </c>
       <c r="B104" t="n">
         <v>22</v>
@@ -6189,10 +5983,8 @@
       <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A105" t="n">
+        <v>40379573</v>
       </c>
       <c r="B105" t="n">
         <v>22</v>
@@ -6244,10 +6036,8 @@
       <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A106" t="n">
+        <v>40379573</v>
       </c>
       <c r="B106" t="n">
         <v>22</v>
@@ -6299,10 +6089,8 @@
       <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A107" t="n">
+        <v>40379573</v>
       </c>
       <c r="B107" t="n">
         <v>22</v>
@@ -6354,10 +6142,8 @@
       <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A108" t="n">
+        <v>40379573</v>
       </c>
       <c r="B108" t="n">
         <v>22</v>
@@ -6409,10 +6195,8 @@
       <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A109" t="n">
+        <v>40379573</v>
       </c>
       <c r="B109" t="n">
         <v>22</v>
@@ -6464,10 +6248,8 @@
       <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A110" t="n">
+        <v>40379573</v>
       </c>
       <c r="B110" t="n">
         <v>22</v>
@@ -6519,10 +6301,8 @@
       <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A111" t="n">
+        <v>40379573</v>
       </c>
       <c r="B111" t="n">
         <v>22</v>
@@ -6565,7 +6345,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>24.0000000012</v>
+        <v>24</v>
       </c>
       <c r="M111" t="n">
         <v>4807</v>
@@ -6574,10 +6354,8 @@
       <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A112" t="n">
+        <v>40379573</v>
       </c>
       <c r="B112" t="n">
         <v>22</v>
@@ -6629,10 +6407,8 @@
       <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A113" t="n">
+        <v>40379573</v>
       </c>
       <c r="B113" t="n">
         <v>22</v>
@@ -6675,7 +6451,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>5.9999999904</v>
+        <v>6</v>
       </c>
       <c r="M113" t="n">
         <v>4817</v>
@@ -6684,10 +6460,8 @@
       <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A114" t="n">
+        <v>40379573</v>
       </c>
       <c r="B114" t="n">
         <v>22</v>
@@ -6786,7 +6560,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1674.9999999952</v>
+        <v>1675</v>
       </c>
     </row>
   </sheetData>
